--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/140.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/140.xlsx
@@ -479,13 +479,13 @@
         <v>-6.597040251074096</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.257855589252065</v>
+        <v>-6.188558805920413</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.673238107995676</v>
+        <v>-3.685128172696013</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.40953430998132</v>
+        <v>-9.207955667851548</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.432426929605509</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.952754580281021</v>
+        <v>-6.885398732675534</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.726068716199559</v>
+        <v>-3.733094219067315</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.305149124365817</v>
+        <v>-9.10562875412702</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.166876231205116</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.368202827803986</v>
+        <v>-7.307828482004454</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.796470415083134</v>
+        <v>-3.801559871231592</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.841676162389147</v>
+        <v>-8.644541627501404</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.800819038028405</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.935195621180713</v>
+        <v>-7.865395270141769</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.516775221233797</v>
+        <v>-3.528489281686925</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.457067770182682</v>
+        <v>-8.264744018051982</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.344705109031294</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.656817923744226</v>
+        <v>-8.592894158959314</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.486487823693259</v>
+        <v>-3.498852122059687</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.107440222108995</v>
+        <v>-7.908046966048735</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.80851813513855</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.323732239466962</v>
+        <v>-9.274514607337728</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.375830042267506</v>
+        <v>-3.40098887160465</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.622910307556521</v>
+        <v>-7.428029604834425</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.214788385577712</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.970479401863672</v>
+        <v>-9.919223053870937</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.242457934938066</v>
+        <v>-3.276236083381581</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.03313474217997</v>
+        <v>-6.850677005906705</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.581201488261465</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.62031152759341</v>
+        <v>-10.57147523799979</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.122990163138132</v>
+        <v>-3.15315044650013</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.508602973442399</v>
+        <v>-6.329391537728765</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.937644672670837</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.86283560223359</v>
+        <v>-10.82055547084851</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.927620559729344</v>
+        <v>-2.96902066987838</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.21645547910303</v>
+        <v>-6.050762147376415</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.306430129120398</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.62139435167665</v>
+        <v>-11.57465055702207</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.97802133152037</v>
+        <v>-3.017485394950107</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.56986476492606</v>
+        <v>-5.428836472843032</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.715435045857975</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.21079835253131</v>
+        <v>-12.16617149785011</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.602027369413409</v>
+        <v>-2.650668098732346</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.014639811077997</v>
+        <v>-4.878622751033556</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.17560268488893</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.16150973886472</v>
+        <v>-13.10457236489263</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.375446346166236</v>
+        <v>-2.433371299525444</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.266411533144733</v>
+        <v>-4.133010091774091</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.6934766024651572</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.63281488984219</v>
+        <v>-13.57837579837909</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.265580583852923</v>
+        <v>-2.31821563178213</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.768021284124556</v>
+        <v>-3.628508584170271</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2561194562311044</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.46204912255337</v>
+        <v>-14.40240812778388</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.08291262028438</v>
+        <v>-2.129221293327798</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.063398058437306</v>
+        <v>-2.934333166157618</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.150661084256795</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.15026973020212</v>
+        <v>-15.08575928459318</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.723076825872573</v>
+        <v>-1.775115414964016</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.872687678572688</v>
+        <v>-2.733390094920547</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5471205266590041</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.14376970463477</v>
+        <v>-16.08710611504723</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.349923376755289</v>
+        <v>-1.399297457104264</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.509894035006397</v>
+        <v>-2.367990610694191</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9428734916694675</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.82022247275486</v>
+        <v>-16.77231998347283</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.183066461394349</v>
+        <v>-1.225595932129642</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.315785795369273</v>
+        <v>-2.175989533016707</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.340779181549075</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.6284486429589</v>
+        <v>-17.58028703631292</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7059531702589863</v>
+        <v>-0.7431780685436767</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.918221534965483</v>
+        <v>-1.782615151497863</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.730050318062863</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.45561482576538</v>
+        <v>-18.39289864567659</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4218872042706271</v>
+        <v>-0.4539639783244561</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.064280615114567</v>
+        <v>-1.931255627272678</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.094432512315062</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.79740040682454</v>
+        <v>-18.75089128449957</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02418116266769682</v>
+        <v>-0.05327564253270768</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.245208092238489</v>
+        <v>-2.127065241299489</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.414033841117555</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.35095332032411</v>
+        <v>-19.30577400786695</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4407047222935118</v>
+        <v>0.4057532122019368</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.28672553855233</v>
+        <v>-2.171252085362666</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.671711943345633</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.83456410158561</v>
+        <v>-19.78056013173367</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5655357346264511</v>
+        <v>0.539271989737384</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.251016232396383</v>
+        <v>-2.135528112186118</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.855746271002436</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.07267829203183</v>
+        <v>-20.02036591855584</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6090087836870588</v>
+        <v>0.5974853945017403</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.714782534785069</v>
+        <v>-2.597964604707003</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.96107837846627</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.63613144443691</v>
+        <v>-20.5832910582193</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8611886468893988</v>
+        <v>0.8573556655057375</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.952388268517135</v>
+        <v>-2.850340028184019</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.990542758505574</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.60265152541228</v>
+        <v>-20.55560950133883</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8942187772822762</v>
+        <v>0.8908404735372379</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.271376410555868</v>
+        <v>-3.191851824858629</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.951694012254346</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.84300488100355</v>
+        <v>-20.79324945811896</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7733967505802071</v>
+        <v>0.7745554452076659</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.576430883023893</v>
+        <v>-3.499864146481138</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.855912229435189</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.99144979650369</v>
+        <v>-20.9364338022303</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8402050294165998</v>
+        <v>0.83915878194708</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.927882030658941</v>
+        <v>-3.850479273941943</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.713570645068267</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.84189996545163</v>
+        <v>-20.78930891858423</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6487857435562788</v>
+        <v>0.6608762575381595</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.170166543962645</v>
+        <v>-4.100336858882499</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.534785488543072</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.5052527306096</v>
+        <v>-20.45395238155506</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6751863806376196</v>
+        <v>0.6871448914340935</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.697900612198045</v>
+        <v>-4.647480284379552</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.326792070724577</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.43479236364362</v>
+        <v>-20.37745409110844</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6445763086438651</v>
+        <v>0.6611353749021061</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.813408288435777</v>
+        <v>-4.763295968049899</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.095667089381581</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.26706520506037</v>
+        <v>-20.22063430684528</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4220189380481628</v>
+        <v>0.4370184111158579</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.219753205172546</v>
+        <v>-5.178186868790036</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.843767819007281</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.87516730361533</v>
+        <v>-19.82792483026034</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2895952980509046</v>
+        <v>0.3093713308275755</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.329662968547662</v>
+        <v>-5.285173006058736</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.573560026905152</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.55130971073715</v>
+        <v>-19.5022289708002</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2106573931776958</v>
+        <v>0.2318023478771029</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.565190874361289</v>
+        <v>-5.533461219795011</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.286832559484361</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.0329674246931</v>
+        <v>-18.97823010381112</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0543216205943565</v>
+        <v>0.06503832364663406</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.383075368568708</v>
+        <v>-5.354826686891673</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9876837866442006</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.60287171259686</v>
+        <v>-18.55550212506332</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0283854391653727</v>
+        <v>0.04178131798071966</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.505647659729132</v>
+        <v>-5.480816393852071</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6803489303127142</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.21732463107194</v>
+        <v>-18.16453802392986</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1104229743922055</v>
+        <v>0.1160159982479562</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.129057238784408</v>
+        <v>-5.099459191212104</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.369941029130984</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.7346232050877</v>
+        <v>-17.68205171424776</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.07103251547334277</v>
+        <v>-0.06826533758666892</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.026529875778334</v>
+        <v>-4.9989460990352</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.06126537137709059</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.12900725746234</v>
+        <v>-17.08486930346783</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1108779214386996</v>
+        <v>-0.1081987456756302</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.006421390534713</v>
+        <v>-4.98286126644305</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.2401369012712312</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.69648170895324</v>
+        <v>-16.64983080542914</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1338318086788653</v>
+        <v>-0.1352202866290691</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.962933674453504</v>
+        <v>-4.92452563650702</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.5286201671338653</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.00811932010535</v>
+        <v>-15.95063926637103</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2756667868949348</v>
+        <v>-0.2824380614056121</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.100451659606088</v>
+        <v>-5.057526179314575</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.7988547078974242</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.37999438486472</v>
+        <v>-15.32623975436299</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.3553478208119147</v>
+        <v>-0.3698583931929182</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.200808303563251</v>
+        <v>-5.142164666194606</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.046636747882273</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.90834700340657</v>
+        <v>-14.84999670644994</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4657807079217895</v>
+        <v>-0.4799197157809075</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.875704013934008</v>
+        <v>-4.802046236477067</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.270583715736675</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.3057622400387</v>
+        <v>-14.25099558511552</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5026144856571267</v>
+        <v>-0.519041548729961</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.025024061663324</v>
+        <v>-4.950300480709396</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.471449157719697</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.77194135825399</v>
+        <v>-13.71496976123383</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6363337124741175</v>
+        <v>-0.6521985397572565</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.131770637595546</v>
+        <v>-5.057716850582385</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.65246546564299</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.86897601298287</v>
+        <v>-12.80120459979369</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.8034204111578027</v>
+        <v>-0.8199159203267737</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.204401723610434</v>
+        <v>-5.109642992515888</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.817385313290612</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.53212343985243</v>
+        <v>-12.46347200542721</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.894859506589713</v>
+        <v>-0.9167475903328912</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.424025690085987</v>
+        <v>-5.330811885161387</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.970434786084451</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.78878416878608</v>
+        <v>-11.71358635416606</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.031981482186077</v>
+        <v>-1.053483334386768</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.516550145042353</v>
+        <v>-5.402939403468983</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.113877675187307</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.35444479872936</v>
+        <v>-11.28322174669214</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.123713918030002</v>
+        <v>-1.146306018762016</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.452054366454011</v>
+        <v>-5.346143810696032</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.248601835594247</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.79421350184957</v>
+        <v>-10.7212988534364</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.3645659523217</v>
+        <v>-1.389631890528373</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.707460974188514</v>
+        <v>-5.599052135921542</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.373130048246851</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.35803097620402</v>
+        <v>-10.28551722635394</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.334307888822363</v>
+        <v>-1.355648403796447</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.899393605769862</v>
+        <v>-5.790686538084008</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.485298694017757</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.767052715138208</v>
+        <v>-9.708472634858834</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.443220294796628</v>
+        <v>-1.467733775227339</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.9355918126125</v>
+        <v>-5.821594839496644</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.58277014644409</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.248050413167118</v>
+        <v>-9.188047631889471</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.371068331454697</v>
+        <v>-1.399898804948894</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.083929169961566</v>
+        <v>-5.968123264304952</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.664236996491697</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.650594218002643</v>
+        <v>-8.601469477003883</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.453844106718434</v>
+        <v>-1.486346224369684</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.007812222050568</v>
+        <v>-5.894328594655738</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.729230415060098</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.977886429142615</v>
+        <v>-7.918250323379986</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.633608000208029</v>
+        <v>-1.665327876760573</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.167702302626154</v>
+        <v>-6.064857154173731</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.777593147427429</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.599858640179018</v>
+        <v>-7.546138232725355</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.697438873862471</v>
+        <v>-1.731842815184951</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.145867997958511</v>
+        <v>-6.043438415089777</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.810110641571706</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.359163054107061</v>
+        <v>-7.291406307938487</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.631940848866411</v>
+        <v>-1.665215429602634</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.006829531670317</v>
+        <v>-5.9073822429904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.827816196025287</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.732147923425218</v>
+        <v>-6.677601273811049</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.704826163238379</v>
+        <v>-1.733021065839878</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.234466580400745</v>
+        <v>-6.139443842935385</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.833502832247537</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.336578377823129</v>
+        <v>-6.276873825964365</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.812046972836691</v>
+        <v>-1.854468885420912</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.165194242103427</v>
+        <v>-6.075260960786526</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.829720756985989</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.211869590661864</v>
+        <v>-6.156638480086325</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.896568123551917</v>
+        <v>-1.934091251255489</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.998728447291839</v>
+        <v>-5.914055737363739</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.82031608706225</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.018323586814434</v>
+        <v>-5.976390574916905</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.013029156128698</v>
+        <v>-2.040847605201444</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.98535212450396</v>
+        <v>-5.892793446499526</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.807206435014634</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.801916586857311</v>
+        <v>-5.749535767285185</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.040788937119041</v>
+        <v>-2.072895045214071</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.137791358614368</v>
+        <v>-6.045364683795341</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.792829188686193</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.450734334599943</v>
+        <v>-5.408292865988255</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.206834277340073</v>
+        <v>-2.231225532599112</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.918856742107049</v>
+        <v>-5.838564582331705</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.776632315888031</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.321874780608666</v>
+        <v>-5.280562672583235</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.347608341066022</v>
+        <v>-2.373119178897584</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.734585184286159</v>
+        <v>-5.655881951742562</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.75924784341523</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.130519051837615</v>
+        <v>-5.090214079226769</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.160789610667468</v>
+        <v>-2.189536971044928</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.837885010377204</v>
+        <v>-5.742070253799405</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.738717291797997</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.185872387584826</v>
+        <v>-5.140639296052129</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.267638855743894</v>
+        <v>-2.296180877832944</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.844426501565136</v>
+        <v>-5.755925699260242</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.715361958805043</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.963784361648348</v>
+        <v>-4.916360995039272</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.331679956693613</v>
+        <v>-2.372923618622908</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.762589415619847</v>
+        <v>-5.671575663785359</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.686942466740899</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.037285690885547</v>
+        <v>-4.995450459125355</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.370175996763701</v>
+        <v>-2.409278273685287</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.648250212023307</v>
+        <v>-5.553657707162237</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.65323732248006</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.190458276025993</v>
+        <v>-5.141230865883026</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.416064215216565</v>
+        <v>-2.447314747109886</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.454533092935536</v>
+        <v>-5.352255069279676</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.61065367657206</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.989392979617248</v>
+        <v>-4.940727805263977</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.31796140342505</v>
+        <v>-2.364010959104522</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.429349818564058</v>
+        <v>-5.341978376845421</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.557392254547215</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.519762222553916</v>
+        <v>-5.457911396680575</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.419994976737565</v>
+        <v>-2.463717365148385</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.277453264215877</v>
+        <v>-5.188756901636306</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.488373991242469</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.544138810792353</v>
+        <v>-5.493977600337806</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.367843940488183</v>
+        <v>-2.416137550319569</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.965480847031167</v>
+        <v>-4.893519554957046</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.400901023458653</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.804962438135399</v>
+        <v>-5.746793034432845</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.520121837371983</v>
+        <v>-2.556706275757108</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.990639676368311</v>
+        <v>-4.907844345077107</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.290132002783727</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.985528128751169</v>
+        <v>-5.933963773325817</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.391902743280272</v>
+        <v>-2.430139665986414</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.530955694713501</v>
+        <v>-4.447148339000845</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.154165384222039</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.427773022911694</v>
+        <v>-6.381273678600467</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.559170335218033</v>
+        <v>-2.608446635429669</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.365242806959419</v>
+        <v>-4.288040499523964</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.990097128057628</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.618649629009788</v>
+        <v>-6.57524013703845</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.613628982708598</v>
+        <v>-2.660558559624115</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.948098074053634</v>
+        <v>-3.871462891414742</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.798103245340868</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.174211924331668</v>
+        <v>-7.136243897003206</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.599607311014286</v>
+        <v>-2.654476635081673</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.534610318284302</v>
+        <v>-3.473717737756877</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.578026707478831</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.874425265824961</v>
+        <v>-7.834066514138578</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.66124790959235</v>
+        <v>-2.723753862385858</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.219489380677299</v>
+        <v>-3.165558745928361</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.332006341777385</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.548418863490989</v>
+        <v>-8.515217617857768</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.635678403678385</v>
+        <v>-2.696399868965468</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.788533203372481</v>
+        <v>-2.739599133641529</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.061976538288775</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.139553572776542</v>
+        <v>-9.1072127923519</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.719563983500911</v>
+        <v>-2.779649877895296</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.400052717727419</v>
+        <v>-2.358232152987828</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7718442635271424</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.832589852189203</v>
+        <v>-9.804394949587705</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.684490248237664</v>
+        <v>-2.743104551565107</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.066930456836435</v>
+        <v>-2.017942608029947</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4664075951953741</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.71832633726132</v>
+        <v>-10.69514266669841</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.815007175556825</v>
+        <v>-2.875264185191552</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.971995721494681</v>
+        <v>-1.932160093543058</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1516796440158432</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.66668611129175</v>
+        <v>-11.64451446515029</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.787902521486648</v>
+        <v>-2.856514843856933</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.680415351951873</v>
+        <v>-1.636981414946201</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1657712568114202</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.64659953564124</v>
+        <v>-12.64182297593227</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.883443493679901</v>
+        <v>-2.938483932987629</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.366360217841857</v>
+        <v>-1.330474907438702</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.481019149524256</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.97729431368502</v>
+        <v>-13.98319045596652</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.823342932264915</v>
+        <v>-2.886181337525373</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.261989699246957</v>
+        <v>-1.22764442600688</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.79037814482325</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.15997929783981</v>
+        <v>-15.17131690476419</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.803674457639316</v>
+        <v>-2.854725467343642</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.330279347164025</v>
+        <v>-1.283462217406448</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.092642070355316</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.616957123256</v>
+        <v>-16.61903984018131</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.718278174694913</v>
+        <v>-2.776618693637809</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.097557731292007</v>
+        <v>-1.065329398025303</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.385097261926121</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.00401237246158</v>
+        <v>-18.01017741012076</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.751098077792513</v>
+        <v>-2.803166000925157</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.400500152793525</v>
+        <v>-1.369797189669299</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.665353111218574</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.49479768036248</v>
+        <v>-19.50388145512121</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.747661105965072</v>
+        <v>-2.79620405514667</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.182440668515384</v>
+        <v>-1.162674413752447</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.927740732564146</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.27817538222765</v>
+        <v>-21.29100413624644</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.5165137503042</v>
+        <v>-2.568254109976761</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.398789000390104</v>
+        <v>-1.375473326641787</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.166247372833675</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.8419242286104</v>
+        <v>-22.85123778669187</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.514308808207221</v>
+        <v>-2.561521947521019</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.570094911999937</v>
+        <v>-1.542599137380408</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.371629664467903</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.70553053316164</v>
+        <v>-24.72067667643534</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.348845259803352</v>
+        <v>-2.396112178192686</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.866847850807941</v>
+        <v>-1.838095601423614</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.535003286724314</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.5322419473917</v>
+        <v>-26.56326025145885</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.281738751548077</v>
+        <v>-2.324825569066199</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.262710736822044</v>
+        <v>-2.241463112978432</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.645419429420984</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.54889616740828</v>
+        <v>-28.58226852828185</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.459429706126101</v>
+        <v>-2.50607083163647</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.469745510615291</v>
+        <v>-2.442406184215503</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.697005506866369</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.70230813200964</v>
+        <v>-30.74557095377497</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.417208242823424</v>
+        <v>-2.457205208001655</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.791451940472029</v>
+        <v>-2.767153576343461</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.677770565010061</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.83775299637509</v>
+        <v>-32.87689194084818</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.530794539362458</v>
+        <v>-2.56469002397078</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.090923167098037</v>
+        <v>-3.072667615456977</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.591707100609186</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.96888086767705</v>
+        <v>-34.9981904638442</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.658485620712543</v>
+        <v>-2.693129123371502</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.401023094652718</v>
+        <v>-3.383476449007361</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.422833904396211</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.04520297200089</v>
+        <v>-37.07956291226157</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.786210925110696</v>
+        <v>-2.818727709782547</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.670422040040333</v>
+        <v>-3.651447804389836</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.193712785643087</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.45627048749554</v>
+        <v>-39.48109686436573</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.822384686919</v>
+        <v>-2.83650413875065</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.949246990667359</v>
+        <v>-3.927588690246926</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.875781397931604</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.63929027768293</v>
+        <v>-41.66574224933638</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.943152934545533</v>
+        <v>-2.948002829357512</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.427958987048203</v>
+        <v>-4.40210102972909</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.527247467506577</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.64689739049228</v>
+        <v>-43.6827215883096</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.012708835241132</v>
+        <v>-3.008298951047174</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.783370230245453</v>
+        <v>-4.744253286303266</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.070291282478435</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.07370995260182</v>
+        <v>-46.12364871324393</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.253834653917377</v>
+        <v>-3.234953309397351</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.962552331917885</v>
+        <v>-4.924217629074405</v>
       </c>
     </row>
   </sheetData>
